--- a/Design/DataTable/Pickaxe.xlsx
+++ b/Design/DataTable/Pickaxe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\Copy\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85EECD37-BBA9-4D0E-ACB1-5D77B8F0CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC0C8A1-11C0-48D7-9401-16B773AA2D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6460D30-C61F-4528-A55C-F2ED9F821935}"/>
   </bookViews>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Korean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResourceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +113,14 @@
   </si>
   <si>
     <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickaxeType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -509,39 +509,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -549,19 +549,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -569,19 +569,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -589,19 +589,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
